--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoli.sbatista\Documents\casa_oliveira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8833D17D-8687-497F-ABDA-F5ABAC85BD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AC5A49-EB07-4499-96F2-BAE25C3AAA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{5E4F8D05-BDC8-4E4A-ACA3-552B53F492BB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="176">
   <si>
     <t>cliente</t>
   </si>
@@ -363,6 +363,207 @@
   </si>
   <si>
     <t>endereço</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_cliente </t>
+  </si>
+  <si>
+    <t>3 normalizacao</t>
+  </si>
+  <si>
+    <t>id_cliente  INT PK A_I</t>
+  </si>
+  <si>
+    <t>nome_cliente VARCHAR(50) NN</t>
+  </si>
+  <si>
+    <t>cpf_cliente VARCHAR(15) UQ NN</t>
+  </si>
+  <si>
+    <t>data_nascimento_cliente DATE NN</t>
+  </si>
+  <si>
+    <t>data_cadastro DATE NN D_C_TS</t>
+  </si>
+  <si>
+    <t>contato INT NN</t>
+  </si>
+  <si>
+    <t>endereço INT NN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_fornecedor INT A_I PK </t>
+  </si>
+  <si>
+    <t>razao_social VARCHAR(100) UQ NN</t>
+  </si>
+  <si>
+    <t>cnpj VARCHAR(16) UQ NN</t>
+  </si>
+  <si>
+    <t>endereco INT NN</t>
+  </si>
+  <si>
+    <t>nome_fantasia VARCHAR(16) UQ NN</t>
+  </si>
+  <si>
+    <t>id_categoria INT PK A_I</t>
+  </si>
+  <si>
+    <t>nome_categoria VARCHAR(30) NN UQ</t>
+  </si>
+  <si>
+    <t>descricao_categoria TEXT NN UQ</t>
+  </si>
+  <si>
+    <t>id_funcionario INT PK A_I</t>
+  </si>
+  <si>
+    <t>id_cargos INT PK A_I</t>
+  </si>
+  <si>
+    <t>funcao VARCHAL(30) UQ NN</t>
+  </si>
+  <si>
+    <t>salario DECIMAL(7,2) NN</t>
+  </si>
+  <si>
+    <t>descricao_cargo TEXT UQ NN</t>
+  </si>
+  <si>
+    <t>beneficios TEXT NN</t>
+  </si>
+  <si>
+    <t>nome_funcionario VARCHAR(100) NN</t>
+  </si>
+  <si>
+    <t>cpf_funcionario VARCHAR(15) UQ NN</t>
+  </si>
+  <si>
+    <t>data_nascimento_funcionario DATE NN</t>
+  </si>
+  <si>
+    <t>horario_expediente VARCHAR(20) NN</t>
+  </si>
+  <si>
+    <t>id_produto INT PK A_I</t>
+  </si>
+  <si>
+    <t>nome_produto VARCHAR(30) NN</t>
+  </si>
+  <si>
+    <t>preco DECIMAL(5,2) NN</t>
+  </si>
+  <si>
+    <t>data_validade DATE NN</t>
+  </si>
+  <si>
+    <t>data_fabricacao DATE NN</t>
+  </si>
+  <si>
+    <t>fornecedor INT NN</t>
+  </si>
+  <si>
+    <t>categoria INT NN</t>
+  </si>
+  <si>
+    <t>id_estoque INT PK A_I</t>
+  </si>
+  <si>
+    <t>produto INT NN</t>
+  </si>
+  <si>
+    <t>quantidade INT NN</t>
+  </si>
+  <si>
+    <t>data_aquisicao DATE NN</t>
+  </si>
+  <si>
+    <t>id_venda INT PK A_I</t>
+  </si>
+  <si>
+    <t>cliente INT NN</t>
+  </si>
+  <si>
+    <t>funcionario INT NN</t>
+  </si>
+  <si>
+    <t>data_hora DATETIME D_C_TS NN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subtotal DECIMAL (6,2) </t>
+  </si>
+  <si>
+    <t>id_itensvenda INT PK A_I</t>
+  </si>
+  <si>
+    <t>venda INT NN</t>
+  </si>
+  <si>
+    <t>quantidade_vendida INT NN</t>
+  </si>
+  <si>
+    <t>total DECIMAL(5,2)</t>
+  </si>
+  <si>
+    <t>id_pagamento INT PK A_I</t>
+  </si>
+  <si>
+    <t>forma_pagamento  VARCHAR(20) NN</t>
+  </si>
+  <si>
+    <t>valor_pagar DECIMAL(6,2) NN</t>
+  </si>
+  <si>
+    <t>parcela INT NN</t>
+  </si>
+  <si>
+    <t>valor_parcela DECIMAL(6,2) NN</t>
+  </si>
+  <si>
+    <t>id_contato INT PK A_I</t>
+  </si>
+  <si>
+    <t>telefone_residencial VARCHAR(15) N</t>
+  </si>
+  <si>
+    <t>telefone_comercial VARCHAR(15) N</t>
+  </si>
+  <si>
+    <t>telefone_celular VARCHAR(15) N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email VARCHAR(100) N </t>
+  </si>
+  <si>
+    <t>id_endereco INT PK A_I</t>
+  </si>
+  <si>
+    <t>tipo_logradouro ENUM(RUA, AVENIDA,ALAMEDA, TRAVESSA, VIELA, ESTRADA, RODOVIA)</t>
+  </si>
+  <si>
+    <t>logradouroVARCHAR(50) NN</t>
+  </si>
+  <si>
+    <t>numero VARCHAR(5) NN</t>
+  </si>
+  <si>
+    <t>complemento VARCHAR(255) N</t>
+  </si>
+  <si>
+    <t>cep VARCHAR(10) NN</t>
+  </si>
+  <si>
+    <t>bairro VARCHAR(30) NN</t>
+  </si>
+  <si>
+    <t>cidade VARCHAR(30) NN</t>
+  </si>
+  <si>
+    <t>estado VARCHAR(2) NN</t>
+  </si>
+  <si>
+    <t>troco DECIMAL(5,2) NN</t>
   </si>
 </sst>
 </file>
@@ -762,24 +963,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBEFC78-495B-405A-96E7-15C15913CAD1}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="1" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1378,7 +1578,7 @@
     </row>
     <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>56</v>
@@ -1638,6 +1838,328 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" t="s">
+        <v>80</v>
+      </c>
+      <c r="J69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" t="s">
+        <v>137</v>
+      </c>
+      <c r="G71" t="s">
+        <v>144</v>
+      </c>
+      <c r="H71" t="s">
+        <v>148</v>
+      </c>
+      <c r="I71" t="s">
+        <v>153</v>
+      </c>
+      <c r="J71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F72" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" t="s">
+        <v>145</v>
+      </c>
+      <c r="H72" t="s">
+        <v>149</v>
+      </c>
+      <c r="I72" t="s">
+        <v>144</v>
+      </c>
+      <c r="J72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" t="s">
+        <v>134</v>
+      </c>
+      <c r="F73" t="s">
+        <v>139</v>
+      </c>
+      <c r="G73" t="s">
+        <v>146</v>
+      </c>
+      <c r="H73" t="s">
+        <v>150</v>
+      </c>
+      <c r="I73" t="s">
+        <v>154</v>
+      </c>
+      <c r="J73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" t="s">
+        <v>140</v>
+      </c>
+      <c r="H74" t="s">
+        <v>151</v>
+      </c>
+      <c r="I74" t="s">
+        <v>155</v>
+      </c>
+      <c r="J74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F75" t="s">
+        <v>141</v>
+      </c>
+      <c r="J75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F76" t="s">
+        <v>142</v>
+      </c>
+      <c r="J76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
         <v>106</v>
       </c>
     </row>
